--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_BasisSwapQuotes.xlsx
@@ -12,9 +12,6 @@
     <sheet name="BasisSwap3M6M" sheetId="24" r:id="rId3"/>
     <sheet name="BasisSwapxM12M" sheetId="25" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
   <si>
     <t>Currency</t>
   </si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>21M</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -242,7 +242,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
     <numFmt numFmtId="169" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -809,22 +809,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1119,7 +1103,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
@@ -1131,13 +1115,13 @@
     <col min="8" max="16384" width="8" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="53" t="s">
         <v>37</v>
@@ -1146,14 +1130,14 @@
       <c r="D2" s="54"/>
       <c r="E2" s="55"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
@@ -1162,7 +1146,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
@@ -1173,7 +1157,7 @@
       </c>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
@@ -1184,7 +1168,7 @@
       </c>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
@@ -1195,19 +1179,18 @@
       </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="10" t="s">
@@ -1218,15 +1201,15 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="12" thickBot="1"/>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="53" t="s">
         <v>34</v>
       </c>
@@ -1234,13 +1217,13 @@
       <c r="D12" s="54"/>
       <c r="E12" s="55"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="10" t="s">
         <v>0</v>
@@ -1250,7 +1233,7 @@
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="10" t="s">
         <v>9</v>
@@ -1260,7 +1243,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="10" t="s">
         <v>10</v>
@@ -1270,7 +1253,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="10" t="s">
         <v>11</v>
@@ -1280,7 +1263,7 @@
       </c>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="2:5" ht="12" thickBot="1">
+    <row r="18" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1312,7 +1295,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="47" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="48" bestFit="1" customWidth="1"/>
@@ -1325,7 +1308,7 @@
     <col min="13" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1335,7 +1318,7 @@
       <c r="G1" s="45"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="34" t="s">
         <v>35</v>
@@ -1346,17 +1329,17 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>EUR_010_Sw1E6E.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="32" t="s">
         <v>53</v>
@@ -1383,7 +1366,7 @@
       </c>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="32" t="s">
         <v>14</v>
@@ -1410,7 +1393,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" ht="12.75">
+    <row r="5" spans="1:12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="32" t="s">
         <v>62</v>
@@ -1437,7 +1420,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:12" customFormat="1" ht="12.75">
+    <row r="6" spans="1:12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="32" t="s">
         <v>63</v>
@@ -1464,7 +1447,7 @@
       </c>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:12" customFormat="1" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="32" t="s">
         <v>64</v>
@@ -1491,7 +1474,7 @@
       </c>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="33" t="s">
         <v>15</v>
@@ -1527,7 +1510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="33" t="s">
         <v>16</v>
@@ -1563,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="33" t="s">
         <v>17</v>
@@ -1599,7 +1582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="33" t="s">
         <v>18</v>
@@ -1635,7 +1618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12" thickBot="1">
+    <row r="12" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="33" t="s">
         <v>19</v>
@@ -1671,7 +1654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -1698,7 +1681,7 @@
       </c>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
         <v>21</v>
@@ -1725,7 +1708,7 @@
       </c>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>22</v>
@@ -1752,7 +1735,7 @@
       </c>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="33" t="s">
         <v>23</v>
@@ -1779,7 +1762,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="33" t="s">
         <v>24</v>
@@ -1806,7 +1789,7 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="33" t="s">
         <v>25</v>
@@ -1833,7 +1816,7 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="33" t="s">
         <v>39</v>
@@ -1860,7 +1843,7 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="33" t="s">
         <v>40</v>
@@ -1887,7 +1870,7 @@
       </c>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="33" t="s">
         <v>26</v>
@@ -1914,7 +1897,7 @@
       </c>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="33" t="s">
         <v>41</v>
@@ -1941,7 +1924,7 @@
       </c>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>42</v>
@@ -1968,7 +1951,7 @@
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="33" t="s">
         <v>43</v>
@@ -1995,7 +1978,7 @@
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="33" t="s">
         <v>44</v>
@@ -2022,7 +2005,7 @@
       </c>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33" t="s">
         <v>27</v>
@@ -2049,7 +2032,7 @@
       </c>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="33" t="s">
         <v>45</v>
@@ -2076,7 +2059,7 @@
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>46</v>
@@ -2103,7 +2086,7 @@
       </c>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="33" t="s">
         <v>47</v>
@@ -2130,7 +2113,7 @@
       </c>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="33" t="s">
         <v>48</v>
@@ -2157,7 +2140,7 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="33" t="s">
         <v>28</v>
@@ -2184,7 +2167,7 @@
       </c>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="33" t="s">
         <v>49</v>
@@ -2211,7 +2194,7 @@
       </c>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="33" t="s">
         <v>50</v>
@@ -2238,7 +2221,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="33" t="s">
         <v>51</v>
@@ -2265,7 +2248,7 @@
       </c>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="33" t="s">
         <v>52</v>
@@ -2292,7 +2275,7 @@
       </c>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>29</v>
@@ -2319,7 +2302,7 @@
       </c>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="33" t="s">
         <v>30</v>
@@ -2346,7 +2329,7 @@
       </c>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="33" t="s">
         <v>31</v>
@@ -2373,7 +2356,7 @@
       </c>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="33" t="s">
         <v>32</v>
@@ -2400,7 +2383,7 @@
       </c>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="33" t="s">
         <v>33</v>
@@ -2427,7 +2410,7 @@
       </c>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -2454,7 +2437,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -2466,7 +2449,7 @@
     <col min="9" max="12" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2476,7 +2459,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="34" t="s">
         <v>35</v>
@@ -2487,17 +2470,17 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$4&amp;$D$4&amp;".xml"</f>
         <v>EUR_010_Sw3E6E.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="32" t="s">
         <v>53</v>
@@ -2524,7 +2507,7 @@
       </c>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="32" t="s">
         <v>14</v>
@@ -2551,7 +2534,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="32" t="s">
         <v>62</v>
@@ -2578,7 +2561,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="32" t="s">
         <v>63</v>
@@ -2605,7 +2588,7 @@
       </c>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="32" t="s">
         <v>64</v>
@@ -2632,7 +2615,7 @@
       </c>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="33" t="s">
         <v>15</v>
@@ -2668,7 +2651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="33" t="s">
         <v>16</v>
@@ -2704,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="33" t="s">
         <v>17</v>
@@ -2740,7 +2723,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="33" t="s">
         <v>18</v>
@@ -2776,7 +2759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.5" thickBot="1">
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="33" t="s">
         <v>19</v>
@@ -2812,7 +2795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -2839,7 +2822,7 @@
       </c>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
         <v>21</v>
@@ -2866,7 +2849,7 @@
       </c>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>22</v>
@@ -2893,7 +2876,7 @@
       </c>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="33" t="s">
         <v>23</v>
@@ -2920,7 +2903,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="33" t="s">
         <v>24</v>
@@ -2947,7 +2930,7 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="33" t="s">
         <v>25</v>
@@ -2974,7 +2957,7 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="33" t="s">
         <v>39</v>
@@ -3001,7 +2984,7 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="33" t="s">
         <v>40</v>
@@ -3028,7 +3011,7 @@
       </c>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="33" t="s">
         <v>26</v>
@@ -3055,7 +3038,7 @@
       </c>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="33" t="s">
         <v>41</v>
@@ -3082,7 +3065,7 @@
       </c>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>42</v>
@@ -3109,7 +3092,7 @@
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="33" t="s">
         <v>43</v>
@@ -3136,7 +3119,7 @@
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="33" t="s">
         <v>44</v>
@@ -3163,7 +3146,7 @@
       </c>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33" t="s">
         <v>27</v>
@@ -3190,7 +3173,7 @@
       </c>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="33" t="s">
         <v>45</v>
@@ -3217,7 +3200,7 @@
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>46</v>
@@ -3244,7 +3227,7 @@
       </c>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="33" t="s">
         <v>47</v>
@@ -3271,7 +3254,7 @@
       </c>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="33" t="s">
         <v>48</v>
@@ -3298,7 +3281,7 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="33" t="s">
         <v>28</v>
@@ -3325,7 +3308,7 @@
       </c>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="33" t="s">
         <v>49</v>
@@ -3352,7 +3335,7 @@
       </c>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="33" t="s">
         <v>50</v>
@@ -3379,7 +3362,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="33" t="s">
         <v>51</v>
@@ -3406,7 +3389,7 @@
       </c>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="33" t="s">
         <v>52</v>
@@ -3433,7 +3416,7 @@
       </c>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>29</v>
@@ -3460,7 +3443,7 @@
       </c>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="33" t="s">
         <v>30</v>
@@ -3487,7 +3470,7 @@
       </c>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="33" t="s">
         <v>31</v>
@@ -3514,7 +3497,7 @@
       </c>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="33" t="s">
         <v>32</v>
@@ -3541,7 +3524,7 @@
       </c>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="33" t="s">
         <v>33</v>
@@ -3568,7 +3551,7 @@
       </c>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -3594,7 +3577,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -3610,7 +3593,7 @@
     <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -3620,7 +3603,7 @@
       <c r="G1" s="24"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="34" t="s">
         <v>35</v>
@@ -3631,17 +3614,17 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$7&amp;$D$7&amp;".xml"</f>
         <v>EUR_010_Sw6E12E.xml</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="37" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="38" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="32" t="s">
         <v>53</v>
@@ -3668,7 +3651,7 @@
       </c>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="32" t="s">
         <v>14</v>
@@ -3695,7 +3678,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="32" t="s">
         <v>62</v>
@@ -3722,7 +3705,7 @@
       </c>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="32" t="s">
         <v>63</v>
@@ -3749,7 +3732,7 @@
       </c>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1">
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="32" t="s">
         <v>64</v>
@@ -3776,7 +3759,7 @@
       </c>
       <c r="H7" s="27"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="33" t="s">
         <v>15</v>
@@ -3812,7 +3795,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="33" t="s">
         <v>16</v>
@@ -3848,7 +3831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="33" t="s">
         <v>17</v>
@@ -3884,7 +3867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="33" t="s">
         <v>18</v>
@@ -3920,7 +3903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.5" thickBot="1">
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="33" t="s">
         <v>19</v>
@@ -3956,7 +3939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -3983,7 +3966,7 @@
       </c>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="33" t="s">
         <v>21</v>
@@ -4010,7 +3993,7 @@
       </c>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="33" t="s">
         <v>22</v>
@@ -4037,7 +4020,7 @@
       </c>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="33" t="s">
         <v>23</v>
@@ -4064,7 +4047,7 @@
       </c>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="33" t="s">
         <v>24</v>
@@ -4091,7 +4074,7 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="33" t="s">
         <v>25</v>
@@ -4118,7 +4101,7 @@
       </c>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="33" t="s">
         <v>39</v>
@@ -4145,7 +4128,7 @@
       </c>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="33" t="s">
         <v>40</v>
@@ -4172,7 +4155,7 @@
       </c>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="33" t="s">
         <v>26</v>
@@ -4199,7 +4182,7 @@
       </c>
       <c r="H21" s="27"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="33" t="s">
         <v>41</v>
@@ -4226,7 +4209,7 @@
       </c>
       <c r="H22" s="27"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="33" t="s">
         <v>42</v>
@@ -4253,7 +4236,7 @@
       </c>
       <c r="H23" s="27"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="33" t="s">
         <v>43</v>
@@ -4280,7 +4263,7 @@
       </c>
       <c r="H24" s="27"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="33" t="s">
         <v>44</v>
@@ -4307,7 +4290,7 @@
       </c>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="33" t="s">
         <v>27</v>
@@ -4334,7 +4317,7 @@
       </c>
       <c r="H26" s="27"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="33" t="s">
         <v>45</v>
@@ -4361,7 +4344,7 @@
       </c>
       <c r="H27" s="27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="33" t="s">
         <v>46</v>
@@ -4388,7 +4371,7 @@
       </c>
       <c r="H28" s="27"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="33" t="s">
         <v>47</v>
@@ -4415,7 +4398,7 @@
       </c>
       <c r="H29" s="27"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="33" t="s">
         <v>48</v>
@@ -4442,7 +4425,7 @@
       </c>
       <c r="H30" s="27"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="33" t="s">
         <v>28</v>
@@ -4469,7 +4452,7 @@
       </c>
       <c r="H31" s="27"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="33" t="s">
         <v>49</v>
@@ -4496,7 +4479,7 @@
       </c>
       <c r="H32" s="27"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="33" t="s">
         <v>50</v>
@@ -4523,7 +4506,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="33" t="s">
         <v>51</v>
@@ -4550,7 +4533,7 @@
       </c>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="33" t="s">
         <v>52</v>
@@ -4577,7 +4560,7 @@
       </c>
       <c r="H35" s="27"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="33" t="s">
         <v>29</v>
@@ -4604,7 +4587,7 @@
       </c>
       <c r="H36" s="27"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="33" t="s">
         <v>30</v>
@@ -4631,7 +4614,7 @@
       </c>
       <c r="H37" s="27"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="33" t="s">
         <v>31</v>
@@ -4658,7 +4641,7 @@
       </c>
       <c r="H38" s="27"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="33" t="s">
         <v>32</v>
@@ -4685,7 +4668,7 @@
       </c>
       <c r="H39" s="27"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="33" t="s">
         <v>33</v>
@@ -4712,7 +4695,7 @@
       </c>
       <c r="H40" s="27"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_BasisSwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/EUR_010_BasisSwapQuotes.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Currency</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>21M</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1182,9 @@
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>65</v>
+      <c r="D8" s="13" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -1330,12 +1328,12 @@
         <v>EUR_010_Sw1E6E.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -2471,12 +2469,12 @@
         <v>EUR_010_Sw3E6E.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
@@ -3615,12 +3613,12 @@
         <v>EUR_010_Sw6E12E.xml</v>
       </c>
       <c r="F2" s="37" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="38" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="27"/>
     </row>
